--- a/Estimation.WebApi/Forms/Estimation_SubmitForm.xlsx
+++ b/Estimation.WebApi/Forms/Estimation_SubmitForm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattanapol.K\Source\Repos\EstimationServer\Estimation.WebApi\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F3C536D-73A3-418A-BB07-660AF10F6ECB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350B3D8-B94D-4D5C-8B91-7662C02F791A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>Date: ##Date##</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Total of ##GROUPCODE##</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -245,7 +245,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -257,10 +257,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -272,7 +272,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -290,7 +290,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -302,10 +302,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -317,7 +317,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -335,7 +335,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -347,10 +347,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -362,7 +362,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -377,10 +377,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -391,47 +391,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -448,26 +409,80 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -477,10 +492,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -490,7 +505,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -506,7 +521,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -518,10 +533,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -533,7 +548,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -548,10 +563,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -582,6 +597,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -619,13 +652,37 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -633,45 +690,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -681,31 +699,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,22 +747,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,7 +774,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,19 +1111,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1129,113 +1144,113 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="G6" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="22"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1254,7 +1269,7 @@
     <mergeCell ref="C10:E10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1268,73 +1283,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="33" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="33" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" style="33" customWidth="1"/>
-    <col min="5" max="6" width="23.28515625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="32" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="23.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" s="39" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="F4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -1345,7 +1360,7 @@
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="45"/>
@@ -1353,30 +1368,30 @@
       <c r="E6" s="45"/>
       <c r="F6" s="46"/>
       <c r="G6" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="D7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="F7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,109 +1405,109 @@
     </row>
     <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="50">
         <v>1</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="50">
         <v>1</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="50">
         <v>1</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="50"/>
       <c r="F12" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="50">
         <v>1</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="49"/>
       <c r="C14" s="50">
         <v>1</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="52"/>
     </row>
@@ -1500,12 +1515,12 @@
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="56"/>
     </row>
@@ -1522,12 +1537,12 @@
       <c r="A17" s="62"/>
       <c r="B17" s="63"/>
       <c r="C17" s="64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
       <c r="F17" s="65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="66"/>
     </row>

--- a/Estimation.WebApi/Forms/Estimation_SubmitForm.xlsx
+++ b/Estimation.WebApi/Forms/Estimation_SubmitForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattanapol.K\Source\Repos\EstimationServer\Estimation.WebApi\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350B3D8-B94D-4D5C-8B91-7662C02F791A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236F298E-4321-4111-9733-A0AD6C42F72F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>SUMMARY OF ESTIMATE</t>
   </si>
@@ -89,18 +89,6 @@
     <t>DESCRIPTION OF ESTIMATE</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>##GROUPCODE##) ##GROUPNAME##</t>
-  </si>
-  <si>
-    <t>##NAME##</t>
-  </si>
-  <si>
-    <t>##DESCRIPTION##</t>
-  </si>
-  <si>
     <t>##QUANTITY##</t>
   </si>
   <si>
@@ -156,6 +144,9 @@
   </si>
   <si>
     <t>Item</t>
+  </si>
+  <si>
+    <t>##NAME## - ##DESCRIPTION##</t>
   </si>
 </sst>
 </file>
@@ -609,176 +600,176 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,15 +1102,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1144,113 +1135,113 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1283,8 +1274,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="6" customWidth="1"/>
     <col min="3" max="4" width="16.85546875" style="6" customWidth="1"/>
     <col min="5" max="6" width="23.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="29.42578125" style="6" customWidth="1"/>
@@ -1292,15 +1283,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1325,226 +1316,226 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" s="9" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="D7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="E7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="F7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="G7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="51" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="C9" s="45">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="C10" s="45">
+        <v>1</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="45" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="52"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="F10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50">
+      <c r="C11" s="45">
         <v>1</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="52"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="45">
         <v>1</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D13" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50">
+      <c r="E13" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="45">
         <v>1</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="52"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50" t="s">
+      <c r="E14" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="F14" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50">
-        <v>1</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="52"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50">
-        <v>1</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="52"/>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="66"/>
+      <c r="G17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1553,6 +1544,6 @@
     <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Estimation.WebApi/Forms/Estimation_SubmitForm.xlsx
+++ b/Estimation.WebApi/Forms/Estimation_SubmitForm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattanapol.K\Source\Repos\EstimationServer\Estimation.WebApi\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattanapol.K\source\repos\EstimationServer\Estimation.WebApi\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236F298E-4321-4111-9733-A0AD6C42F72F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964222C-B7F9-465C-8BA4-2DD78F1A95F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Description!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Summary!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -153,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,23 +168,35 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="AngsanaUPC"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="AngsanaUPC"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="AngsanaUPC"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -236,7 +248,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -248,10 +260,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -263,7 +275,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -281,7 +293,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -293,10 +305,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -308,7 +320,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -326,7 +338,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -338,10 +350,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -353,7 +365,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -368,10 +380,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -383,7 +395,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -401,7 +413,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -411,10 +423,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -424,7 +436,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -440,7 +452,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -448,10 +460,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -459,7 +471,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -473,7 +485,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -483,10 +495,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -496,7 +508,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -512,7 +524,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -524,10 +536,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -539,7 +551,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -554,10 +566,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -571,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -579,62 +591,155 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -642,10 +747,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,122 +759,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,6 +792,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>427615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6023972-60DA-424B-A315-8C16AD6E3EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1276350" cy="427615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>427615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851F66CA-D56C-4906-B82D-CE668181EE34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1276350" cy="427615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,40 +1217,40 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
@@ -1211,46 +1327,46 @@
     <row r="8" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="62" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="31" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
   </sheetData>
@@ -1261,6 +1377,7 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1274,268 +1391,268 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.85546875" style="6" customWidth="1"/>
-    <col min="5" max="6" width="23.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="8.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="50" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="47"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="48">
         <v>1</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="48">
         <v>1</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="48">
         <v>1</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="48">
         <v>1</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="48">
         <v>1</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="47"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="64" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="49" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="65" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="58" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="59"/>
+      <c r="G17" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1545,5 +1662,6 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>